--- a/TFG - Presupuesto.xlsx
+++ b/TFG - Presupuesto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eguzki\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98C2B07-33E4-4AAE-AD7E-F95464D95274}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16C837F-1257-42E8-9BB9-91787D590D55}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{94F3118D-7982-4445-8B2A-92A2689FBD76}"/>
   </bookViews>
@@ -871,7 +871,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -943,6 +943,33 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1268,8 +1295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BDFF53-2739-41E6-AFFB-68ECAE063E4E}">
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,8 +1304,8 @@
     <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="61" style="7" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="7"/>
+    <col min="4" max="4" width="14.28515625" style="64" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="64"/>
     <col min="6" max="6" width="14.7109375" style="7" customWidth="1"/>
     <col min="7" max="7" width="192.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11.42578125" style="7"/>
@@ -1287,8 +1314,8 @@
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
       <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:11" ht="37.5" thickBot="1" x14ac:dyDescent="0.95">
@@ -1312,10 +1339,10 @@
       <c r="C3" s="22" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="60" t="s">
         <v>188</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="60" t="s">
         <v>189</v>
       </c>
       <c r="F3" s="22" t="s">
@@ -1332,8 +1359,10 @@
       <c r="C4" s="1">
         <v>466</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
+      <c r="D4" s="62">
+        <v>1</v>
+      </c>
+      <c r="E4" s="62">
         <v>1</v>
       </c>
       <c r="F4" s="1">
@@ -1350,8 +1379,10 @@
       <c r="C5" s="26">
         <v>109</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27">
+      <c r="D5" s="63">
+        <v>1</v>
+      </c>
+      <c r="E5" s="63">
         <v>1</v>
       </c>
       <c r="F5" s="26">
@@ -1368,8 +1399,10 @@
       <c r="C6" s="1">
         <v>466</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2">
+      <c r="D6" s="62">
+        <v>1</v>
+      </c>
+      <c r="E6" s="62">
         <v>1</v>
       </c>
       <c r="F6" s="1">
@@ -1386,8 +1419,10 @@
       <c r="C7" s="26">
         <v>866</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27">
+      <c r="D7" s="63">
+        <v>1</v>
+      </c>
+      <c r="E7" s="63">
         <v>1</v>
       </c>
       <c r="F7" s="26">
@@ -1404,8 +1439,10 @@
       <c r="C8" s="1">
         <v>466</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2">
+      <c r="D8" s="62">
+        <v>1</v>
+      </c>
+      <c r="E8" s="62">
         <v>1</v>
       </c>
       <c r="F8" s="1">
@@ -1422,8 +1459,10 @@
       <c r="C9" s="26">
         <v>466</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27">
+      <c r="D9" s="63">
+        <v>1</v>
+      </c>
+      <c r="E9" s="63">
         <v>1</v>
       </c>
       <c r="F9" s="26">
@@ -1440,10 +1479,10 @@
       <c r="C10" s="1">
         <v>19.8</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="62">
         <v>100</v>
       </c>
       <c r="F10" s="1">
@@ -1461,10 +1500,10 @@
       <c r="C11" s="26">
         <v>118</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="63">
         <v>5</v>
       </c>
       <c r="F11" s="26">
@@ -1482,10 +1521,10 @@
       <c r="C12" s="1">
         <v>34.979999999999997</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="62">
         <v>100</v>
       </c>
       <c r="F12" s="1">
@@ -1503,10 +1542,10 @@
       <c r="C13" s="26">
         <v>80.900000000000006</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="63">
         <v>5</v>
       </c>
       <c r="F13" s="26">
@@ -1524,10 +1563,10 @@
       <c r="C14" s="1">
         <v>163</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="62">
         <v>5</v>
       </c>
       <c r="F14" s="1">
@@ -1545,8 +1584,8 @@
       <c r="C15" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
       <c r="F15" s="29" t="s">
         <v>28</v>
       </c>
@@ -1561,10 +1600,10 @@
       <c r="C16" s="1">
         <v>16.57</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="62">
         <v>10</v>
       </c>
       <c r="F16" s="1">
@@ -1582,10 +1621,10 @@
       <c r="C17" s="26">
         <v>94.17</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="63">
         <v>1</v>
       </c>
       <c r="F17" s="26">
@@ -1603,10 +1642,10 @@
       <c r="C18" s="1">
         <v>73.790000000000006</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="62">
         <v>1</v>
       </c>
       <c r="F18" s="1">
@@ -1624,10 +1663,10 @@
       <c r="C19" s="26">
         <v>255</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="63">
         <v>1</v>
       </c>
       <c r="F19" s="26">
@@ -1645,10 +1684,10 @@
       <c r="C20" s="9">
         <v>500</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="62" t="s">
         <v>180</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="62">
         <v>10</v>
       </c>
       <c r="F20" s="10">
@@ -1666,10 +1705,10 @@
       <c r="C21" s="26">
         <v>15</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="63">
         <v>500</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="63">
         <v>4</v>
       </c>
       <c r="F21" s="26">
@@ -1687,10 +1726,10 @@
       <c r="C22" s="11">
         <v>25.1</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="64">
         <v>250</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="62">
         <v>8</v>
       </c>
       <c r="F22" s="1">
@@ -1708,10 +1747,10 @@
       <c r="C23" s="26">
         <v>20.83</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="63" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="63">
         <v>8</v>
       </c>
       <c r="F23" s="26">
@@ -1729,10 +1768,10 @@
       <c r="C24" s="1">
         <v>8.9</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="62">
         <v>1000</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="62">
         <v>2</v>
       </c>
       <c r="F24" s="1">
@@ -1750,10 +1789,10 @@
       <c r="C25" s="26">
         <v>36.97</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="63">
         <v>50</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="63">
         <v>10</v>
       </c>
       <c r="F25" s="26">
@@ -1771,10 +1810,10 @@
       <c r="C26" s="1">
         <v>55.6</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="62">
         <v>2</v>
       </c>
       <c r="F26" s="1">
@@ -1792,10 +1831,10 @@
       <c r="C27" s="26">
         <v>38.81</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="63">
         <v>1</v>
       </c>
       <c r="F27" s="26">
@@ -1813,10 +1852,10 @@
       <c r="C28" s="1">
         <v>62.32</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="62">
         <v>1</v>
       </c>
       <c r="F28" s="1">
@@ -1834,10 +1873,10 @@
       <c r="C29" s="31">
         <v>90.7</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="63">
         <v>1</v>
       </c>
       <c r="F29" s="26">
@@ -1855,10 +1894,10 @@
       <c r="C30" s="1">
         <v>602.29999999999995</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="62">
         <v>2</v>
       </c>
       <c r="F30" s="1">
@@ -1876,8 +1915,8 @@
       <c r="C31" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D31" s="26"/>
-      <c r="E31" s="33"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="67"/>
       <c r="F31" s="30" t="s">
         <v>28</v>
       </c>
@@ -1892,10 +1931,10 @@
       <c r="C32" s="11">
         <v>168</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="62">
         <v>1</v>
       </c>
       <c r="F32" s="1">
@@ -1913,10 +1952,10 @@
       <c r="C33" s="34">
         <v>68.8</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="63">
         <v>2</v>
       </c>
       <c r="F33" s="26">
@@ -1934,10 +1973,10 @@
       <c r="C34" s="11">
         <v>113</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="66" t="s">
         <v>91</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="62">
         <v>2</v>
       </c>
       <c r="F34" s="1">
@@ -1955,10 +1994,10 @@
       <c r="C35" s="34">
         <v>116.54</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="67" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="33">
+      <c r="E35" s="67">
         <v>2</v>
       </c>
       <c r="F35" s="26">
@@ -1976,10 +2015,10 @@
       <c r="C36" s="1">
         <v>117</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="62">
         <v>2</v>
       </c>
       <c r="F36" s="1">
@@ -1997,10 +2036,10 @@
       <c r="C37" s="34">
         <v>99.5</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="63">
         <v>1</v>
       </c>
       <c r="F37" s="26">
@@ -2018,10 +2057,10 @@
       <c r="C38" s="11">
         <v>83.5</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="62">
         <v>2</v>
       </c>
       <c r="F38" s="1">
@@ -2039,10 +2078,10 @@
       <c r="C39" s="34">
         <v>232</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="63">
         <v>1</v>
       </c>
       <c r="F39" s="26">
@@ -2060,10 +2099,10 @@
       <c r="C40" s="11">
         <v>53.5</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="62">
         <v>4</v>
       </c>
       <c r="F40" s="1">
@@ -2081,10 +2120,10 @@
       <c r="C41" s="26">
         <v>178</v>
       </c>
-      <c r="D41" s="26" t="s">
+      <c r="D41" s="65" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="63">
         <v>4</v>
       </c>
       <c r="F41" s="26">
@@ -2102,10 +2141,10 @@
       <c r="C42" s="11">
         <v>139</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="64" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="62">
         <v>1</v>
       </c>
       <c r="F42" s="1">
@@ -2123,10 +2162,10 @@
       <c r="C43" s="34">
         <v>137</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="67" t="s">
         <v>128</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="67" t="s">
         <v>128</v>
       </c>
       <c r="F43" s="26">
@@ -2144,10 +2183,10 @@
       <c r="C44" s="11">
         <v>438</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="64">
         <v>2</v>
       </c>
       <c r="F44" s="1">
@@ -2165,10 +2204,10 @@
       <c r="C45" s="34">
         <v>173</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="33">
+      <c r="E45" s="67">
         <v>2</v>
       </c>
       <c r="F45" s="26">
@@ -2186,10 +2225,10 @@
       <c r="C46" s="11">
         <v>317</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="64" t="s">
         <v>140</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="64">
         <f>100/25</f>
         <v>4</v>
       </c>
@@ -2208,10 +2247,10 @@
       <c r="C47" s="34">
         <v>130</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="67" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="67">
         <v>1</v>
       </c>
       <c r="F47" s="26">
@@ -2229,10 +2268,10 @@
       <c r="C48" s="11">
         <v>15</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="64">
         <v>2</v>
       </c>
       <c r="F48" s="1">
@@ -2250,10 +2289,10 @@
       <c r="C49" s="34">
         <v>35.9</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="E49" s="33">
+      <c r="E49" s="67">
         <v>1</v>
       </c>
       <c r="F49" s="26">
@@ -2271,10 +2310,10 @@
       <c r="C50" s="11">
         <v>61.8</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="64" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="64">
         <v>5</v>
       </c>
       <c r="F50" s="1">
@@ -2292,10 +2331,10 @@
       <c r="C51" s="34">
         <v>45.6</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="67" t="s">
         <v>140</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="67">
         <v>1</v>
       </c>
       <c r="F51" s="26">
@@ -2313,10 +2352,10 @@
       <c r="C52" s="11">
         <v>136</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="64">
         <v>1</v>
       </c>
       <c r="F52" s="1">
@@ -2335,10 +2374,10 @@
       <c r="C53" s="26">
         <v>581.67999999999995</v>
       </c>
-      <c r="D53" s="27">
-        <v>1</v>
-      </c>
-      <c r="E53" s="27">
+      <c r="D53" s="63">
+        <v>1</v>
+      </c>
+      <c r="E53" s="63">
         <v>10</v>
       </c>
       <c r="F53" s="26">
@@ -2356,10 +2395,10 @@
       <c r="C54" s="11">
         <v>0.42</v>
       </c>
-      <c r="D54" s="7">
-        <v>1</v>
-      </c>
-      <c r="E54" s="7">
+      <c r="D54" s="64">
+        <v>1</v>
+      </c>
+      <c r="E54" s="64">
         <f>960*2</f>
         <v>1920</v>
       </c>
@@ -2378,10 +2417,10 @@
       <c r="C55" s="34">
         <v>173.4</v>
       </c>
-      <c r="D55" s="33">
+      <c r="D55" s="67">
         <v>500</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="67">
         <v>2</v>
       </c>
       <c r="F55" s="26">
@@ -2399,11 +2438,11 @@
       <c r="C56" s="11">
         <v>64.790000000000006</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="64">
         <f>4*500</f>
         <v>2000</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="64">
         <v>1</v>
       </c>
       <c r="F56" s="1">
@@ -2421,10 +2460,10 @@
       <c r="C57" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="37" t="s">
+      <c r="D57" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="E57" s="37"/>
+      <c r="E57" s="68"/>
       <c r="F57" s="38" t="s">
         <v>28</v>
       </c>
@@ -2532,7 +2571,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G26" sqref="B2:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3058,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1700AB85-3C65-4A03-9A0F-7F4E438C7C8A}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" activeCellId="1" sqref="G3 G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3290,7 +3329,7 @@
   <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
